--- a/08-17-25 to 08-23-25 Milwaukee Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Milwaukee Schedule.xlsx
@@ -1078,11 +1078,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Carlie/Trevor</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1140,9 +1136,21 @@
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1189,19 +1197,15 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1252,15 +1256,19 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1320,20 +1328,15 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>w/ Trevor,
-Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1392,12 +1395,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1455,15 +1458,19 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1522,19 +1529,15 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1581,12 +1584,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1628,12 +1631,12 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1700,12 +1703,12 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1764,12 +1767,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1819,12 +1822,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1866,15 +1869,19 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1913,17 +1920,17 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -1970,21 +1977,9 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2029,21 +2024,9 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2086,7 +2069,11 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2117,7 +2104,11 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2150,7 +2141,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM MEET WATERTOWN PLANK</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2189,7 +2180,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2228,7 +2219,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2267,7 +2258,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2304,11 +2295,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>213 N MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2338,13 +2325,22 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2382,8 +2378,16 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2429,22 +2433,9 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2477,16 +2468,8 @@
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>

--- a/08-17-25 to 08-23-25 Milwaukee Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Milwaukee Schedule.xlsx
@@ -1918,21 +1918,9 @@
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2025,7 +2013,11 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2071,7 +2063,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6:00 AM MEET WATERTOWN PLANK</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2106,7 +2098,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2141,7 +2133,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2180,7 +2172,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2219,7 +2211,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2256,11 +2248,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2294,9 +2282,22 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2327,20 +2328,15 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2378,16 +2374,8 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
